--- a/exe/TSV/Excel/W10_Shin-Nozaki_UIList.xlsx
+++ b/exe/TSV/Excel/W10_Shin-Nozaki_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D7C9DA-51E0-4358-8ACA-DB484CE318AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463EDB2E-74B5-4CEB-B01E-AA4864B36BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="4830" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="4605" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W10_新野崎駅_UIList" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5">
-        <v>850</v>
+        <v>1650</v>
       </c>
       <c r="H3" s="5">
         <v>78</v>
@@ -1095,7 +1095,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="8">
         <f>G3+11</f>
-        <v>861</v>
+        <v>1661</v>
       </c>
       <c r="H5" s="8">
         <f>H3-68</f>
